--- a/Reports/TestCases.xlsx
+++ b/Reports/TestCases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Employee On-the-job Training Form</t>
   </si>
@@ -198,7 +198,18 @@
 4. The google map doesn't display</t>
   </si>
   <si>
-    <t>to do</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Checking the scroll function</t>
+  </si>
+  <si>
+    <t>1. Scroll down the list 
+of cities</t>
+  </si>
+  <si>
+    <t>1. The end of the list 
+of cities is displayed</t>
   </si>
   <si>
     <t>On-the-job Training Record</t>
@@ -230,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #\ ##0.00_ ;_ &quot;￥&quot;* \-#\ ##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #\ ##0_ ;_ &quot;￥&quot;* \-#\ ##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #\ ##0.00_ ;_ * \-#\ ##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #\ ##0_ ;_ * \-#\ ##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #\ ##0_ ;_ * \-#\ ##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #\ ##0.00_ ;_ &quot;￥&quot;* \-#\ ##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #\ ##0_ ;_ &quot;￥&quot;* \-#\ ##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #\ ##0.00_ ;_ * \-#\ ##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -350,21 +361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -372,11 +368,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,14 +384,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -413,9 +402,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,32 +431,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +471,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,19 +548,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,19 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,43 +608,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,61 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,13 +662,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,16 +1099,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1114,6 +1125,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,17 +1179,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,173 +1196,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2730,8 +2741,8 @@
   <sheetPr/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -3017,16 +3028,28 @@
       <c r="K10" s="26"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="1:12">
+    <row r="11" ht="65" customHeight="1" spans="1:12">
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -3369,7 +3392,7 @@
     <row r="1" ht="16" customHeight="1"/>
     <row r="2" ht="49" customHeight="1" spans="2:9">
       <c r="B2" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -3394,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>2</v>
@@ -3406,7 +3429,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>8</v>
@@ -3725,7 +3748,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3740,20 +3763,20 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="13"/>
       <c r="J2" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K2" s="13"/>
     </row>
@@ -3762,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
@@ -3789,7 +3812,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L3" s="14"/>
     </row>
